--- a/Results/Calculation/sentiment-cir_.xlsx
+++ b/Results/Calculation/sentiment-cir_.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G2">
-        <v>0.8089887640449438</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="H2">
-        <v>0.8520710059171598</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>0.9147286821705426</v>
+        <v>0.8803418803418803</v>
       </c>
       <c r="G3">
-        <v>0.8368794326241135</v>
+        <v>0.7304964539007093</v>
       </c>
       <c r="H3">
-        <v>0.874074074074074</v>
+        <v>0.7984496124031008</v>
       </c>
       <c r="I3">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>0.8690476190476191</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="G4">
-        <v>0.8902439024390244</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="H4">
-        <v>0.8795180722891567</v>
+        <v>0.7712418300653594</v>
       </c>
       <c r="I4">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>0.9142857142857143</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G5">
-        <v>0.7441860465116279</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="H5">
-        <v>0.8205128205128205</v>
+        <v>0.7317073170731708</v>
       </c>
       <c r="I5">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
